--- a/medicine/Psychotrope/Valse_(cocktail)/Valse_(cocktail).xlsx
+++ b/medicine/Psychotrope/Valse_(cocktail)/Valse_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une valse est un cocktail à base de bière, généralement blonde, auquel on ajoute du sirop de menthe.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « valse », argotique[1],[2], est à rapprocher du nom « tango », qui désigne un autre cocktail, fait de bière et de Sirop de grenadine, dont la valse s'inspire[3].
-On trouve parfois ce cocktail désigné sous le nom de « pelouse », en raison de sa couleur[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « valse », argotique est à rapprocher du nom « tango », qui désigne un autre cocktail, fait de bière et de Sirop de grenadine, dont la valse s'inspire.
+On trouve parfois ce cocktail désigné sous le nom de « pelouse », en raison de sa couleur.
 En Belgique une bière avec du sirop de menthe est appelée un perroquet.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La valse se prépare directement dans le verre, en versant 4 cl de sirop de menthe, puis 15 cl de bière[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valse se prépare directement dans le verre, en versant 4 cl de sirop de menthe, puis 15 cl de bière.
 </t>
         </is>
       </c>
